--- a/tabellen/concept/5.1/disciplines-concept-5.1.xlsx
+++ b/tabellen/concept/5.1/disciplines-concept-5.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\ontwikkeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D2C0479D-511F-4EB2-87B2-23D35F343915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D6DCFA6B-28FE-47C0-A6E7-D96FF6552A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E107F8C-CDFA-4DBB-BDC9-1F533F283D90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2C58F885-0F07-410D-9FA7-D8630C8CEF51}"/>
   </bookViews>
   <sheets>
     <sheet name="disciplines-concept-5.1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>disciplineURI</t>
   </si>
@@ -43,19 +43,22 @@
     <t>WE</t>
   </si>
   <si>
-    <t>wegen</t>
+    <t>Wegen</t>
   </si>
   <si>
     <t>Vormgeving van wegen en kunstwerken, bestaande situatie inclusief te verwijderen en toekomstige situatie met daarin opgenomen wegmeubilair, markering en geleideconstructies. Situatie-, dwars- en lengteprofielen en detailtekeningen.</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/a4074b0f-7910-4496-951e-1879d6059d4b</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
-    <t>Onafhankelijk van discipline</t>
+    <t>http://digitalbuildingdata.tech/nlcs/def/2b332b59-66e6-4ed1-95a1-89d600f9af61</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Beheer</t>
+  </si>
+  <si>
+    <t>Weergave objecten in context van beheer</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/c45f8b5f-4b22-41cf-8a91-8934887d941e</t>
@@ -64,7 +67,7 @@
     <t>WA</t>
   </si>
   <si>
-    <t>waterbouw</t>
+    <t>Waterbouw</t>
   </si>
   <si>
     <t>Vormgeving van waterwegen zoals: rivieren, kanalen, uiterwaarden, oeverbescherming en zeeweringen, inclusief kunstwerken, bestaande situatie inclusief te verwijderen en toekomstige situatie. Situatie-, dwars- en lengteprofielen en detailtekeningen.</t>
@@ -76,7 +79,7 @@
     <t>SB</t>
   </si>
   <si>
-    <t>spoorbouw</t>
+    <t>Spoorbouw</t>
   </si>
   <si>
     <t>Vormgeving van spoorwegen en kunstwerken, bestaande situatie inclusief te verwijderen en toekomstige situatie. Inclusief breedspoor, smalspoor, tram, metro en lightrail. Situatie-, dwars- en lengteprofielen en detailtekeningen.</t>
@@ -88,7 +91,7 @@
     <t>GV</t>
   </si>
   <si>
-    <t>groenvoorziening</t>
+    <t>Groenvoorziening</t>
   </si>
   <si>
     <t>Vormgeving van landschappelijke en stedelijk groene inrichting van de omgeving ten behoeve van beplantingsplannen, groenbeheerplannen, groenstructuurplannen en dergelijke. Situatie-, dwars- en lengteprofielen en detailtekeningen.</t>
@@ -112,7 +115,7 @@
     <t>PV</t>
   </si>
   <si>
-    <t>planvorming</t>
+    <t>Planvorming</t>
   </si>
   <si>
     <t>Vormgeving van stedenbouwkundige ontwerpen: verkavelingsplannen, inrichtingsplannen, matenplannen en exploitatieplannen.</t>
@@ -124,7 +127,7 @@
     <t>OI</t>
   </si>
   <si>
-    <t>ondergrondse infrast</t>
+    <t>Ondergrondse infrastructuur</t>
   </si>
   <si>
     <t>Vormgeving van de ondergrondse infrastructuur (kabels en leidingen). Bestaande situatie inclusief te verwijderen en toekomstige situatie. Situatie-, dwars- en lengteprofielen en detailtekeningen.</t>
@@ -136,7 +139,7 @@
     <t>CO</t>
   </si>
   <si>
-    <t>contructies</t>
+    <t>Contructies</t>
   </si>
   <si>
     <t>Vorm- en wapeningstekeningen van civieltechnische constructies, zoals: brug, tunnel, onderdoorgang, viaduct, sluizencomplex, spoortunnel, faunapassage.</t>
@@ -148,7 +151,7 @@
     <t>ME</t>
   </si>
   <si>
-    <t>meten</t>
+    <t>Meten</t>
   </si>
   <si>
     <t>Landmeetkundige tekeningen Bijvoorbeeld: het genereren van een GIS-model op basis van het IMgeo protocol vanuit een NLCS model.</t>
@@ -1011,11 +1014,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13FB803-3609-47F2-ABBD-F44A5B6A86C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F95032A-4536-4B40-AEBE-B032731720EA}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1059,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1068,143 +1071,143 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
